--- a/master_output.xlsx
+++ b/master_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="207">
   <si>
     <t>selected for Higher</t>
   </si>
@@ -52,19 +52,19 @@
     <t>Seventy Nine Thousand Six Hundred Seventy Nine) 3899613736 (Three Hundred Eighty Nine Crore Ninety Six</t>
   </si>
   <si>
-    <t>2023-24 1113</t>
-  </si>
-  <si>
-    <t>2022-23 1093</t>
-  </si>
-  <si>
-    <t>2021-22 1093</t>
-  </si>
-  <si>
-    <t>2020-21 1071</t>
-  </si>
-  <si>
-    <t>2019-20 -</t>
+    <t>2023-24</t>
+  </si>
+  <si>
+    <t>2022-23</t>
+  </si>
+  <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>2020-21</t>
+  </si>
+  <si>
+    <t>2019-20</t>
   </si>
   <si>
     <t>No. of Male Students</t>
@@ -103,117 +103,36 @@
     <t>No. of students who are not receiving full tuition fee reimbursement</t>
   </si>
   <si>
-    <t>2018-19 - No. of first year students intake in the year</t>
-  </si>
-  <si>
-    <t>2018-19 - No. of first year students admitted in the year</t>
-  </si>
-  <si>
-    <t>2019-20 - No. of students admitted through Lateral entry</t>
-  </si>
-  <si>
-    <t>2021-22 - No. of students graduating in minimum stipulated time</t>
-  </si>
-  <si>
-    <t>2021-22 - No. of students placed</t>
-  </si>
-  <si>
-    <t>2021-22 - Median salary of placed graduates(Amount in Rs.)</t>
-  </si>
-  <si>
-    <t>2021-22 - No. of students selected for Higher Studies</t>
-  </si>
-  <si>
-    <t>2019-20 - No. of first year students intake in the year</t>
-  </si>
-  <si>
-    <t>2019-20 - No. of first year students admitted in the year</t>
-  </si>
-  <si>
-    <t>2020-21 - No. of students admitted through Lateral entry</t>
-  </si>
-  <si>
-    <t>2022-23 - No. of students graduating in minimum stipulated time</t>
-  </si>
-  <si>
-    <t>2022-23 - No. of students placed</t>
-  </si>
-  <si>
-    <t>2022-23 - Median salary of placed graduates(Amount in Rs.)</t>
-  </si>
-  <si>
-    <t>2022-23 - No. of students selected for Higher Studies</t>
-  </si>
-  <si>
-    <t>2020-21 - No. of first year students intake in the year</t>
-  </si>
-  <si>
-    <t>2020-21 - No. of first year students admitted in the year</t>
-  </si>
-  <si>
-    <t>2021-22 - No. of students admitted through Lateral entry</t>
-  </si>
-  <si>
-    <t>2023-24 - No. of students graduating in minimum stipulated time</t>
-  </si>
-  <si>
-    <t>2023-24 - No. of students placed</t>
-  </si>
-  <si>
-    <t>2023-24 - Median salary of placed graduates(Amount in Rs.)</t>
-  </si>
-  <si>
-    <t>2023-24 - No. of students selected for Higher Studies</t>
-  </si>
-  <si>
-    <t>2017-18 - No. of first year students intake in the year</t>
-  </si>
-  <si>
-    <t>2017-18 - No. of first year students admitted in the year</t>
-  </si>
-  <si>
-    <t>2018-19 - No. of students admitted through Lateral entry</t>
-  </si>
-  <si>
-    <t>2021-22 - No. of first year students intake in the year</t>
-  </si>
-  <si>
-    <t>2021-22 - No. of first year students admitted in the year</t>
-  </si>
-  <si>
-    <t>2022-23 - No. of first year students intake in the year</t>
-  </si>
-  <si>
-    <t>2022-23 - No. of first year students admitted in the year</t>
+    <t>No. of first year students intake in the year</t>
+  </si>
+  <si>
+    <t>No. of first year students admitted in the year</t>
+  </si>
+  <si>
+    <t>No. of students admitted through Lateral entry</t>
+  </si>
+  <si>
+    <t>No. of students graduating in minimum stipulated time</t>
+  </si>
+  <si>
+    <t>No. of students placed</t>
+  </si>
+  <si>
+    <t>Median salary of placed graduates(Amount in Rs.)</t>
+  </si>
+  <si>
+    <t>No. of students selected for Higher Studies</t>
   </si>
   <si>
     <t>Column_1</t>
   </si>
   <si>
-    <t>Total Students 2866</t>
+    <t>Column_2</t>
   </si>
   <si>
     <t>Column_3</t>
   </si>
   <si>
-    <t>Utilised Amount 2023-24 172854705 (Seventeen Crore Twenty Eight Lakh Fifty Four Thousand Seven Hundred Five Only)</t>
-  </si>
-  <si>
-    <t>Utilised Amount 2022-23 171675951 (Seventeen Crore Sixteen Lakh Seventy Five Thousand Nine Hundred Fifty One)</t>
-  </si>
-  <si>
-    <t>Utilised Amount 2021-22 183339247 (Eighteen Crore Thirty Three Lakh Thirty Nine Thousand Two Hundrede Forty Seven)</t>
-  </si>
-  <si>
-    <t>Utilised Amount 2023-24 7014005469 (Seven Hundred One Crore Forty Lakh Five Thousand Four Hundred Sixty Nine Only)</t>
-  </si>
-  <si>
-    <t>Utilised Amount 2022-23 6845479679 (Six Hundred Eighty Four Crore Fifty Four Lakh Seventy Nine Thousand Six Hundred Seventy Nine)</t>
-  </si>
-  <si>
-    <t>Utilised Amount 2021-22 3899613736 (Three Hundred Eighty Nine Crore Ninety Six Lakh Thirteen Thousand Seven Hundred Thirty Six)</t>
-  </si>
-  <si>
     <t>2023</t>
   </si>
   <si>
@@ -223,25 +142,10 @@
     <t>2021</t>
   </si>
   <si>
-    <t>409 1006 2023-24 3672207091</t>
-  </si>
-  <si>
-    <t>242 589 2022-23 3302728430</t>
-  </si>
-  <si>
-    <t>213 714 2021-22 3748347370</t>
-  </si>
-  <si>
-    <t>431 521 2023-24 475309217</t>
-  </si>
-  <si>
-    <t>459 533 2022-23 659733684</t>
-  </si>
-  <si>
-    <t>314 368 2021-22 431097403</t>
-  </si>
-  <si>
-    <t>Yes, more than 80% of the buildings</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>UG [4 Years Program(s)]</t>
   </si>
   <si>
     <t>UG [5 Years Program(s)]</t>
@@ -250,43 +154,10 @@
     <t>PG [2 Year Program(s)]</t>
   </si>
   <si>
-    <t>UG [4 Years Program(s)]</t>
-  </si>
-  <si>
-    <t>No. of first year students intake in the year_798</t>
-  </si>
-  <si>
-    <t>Row_1</t>
-  </si>
-  <si>
-    <t>No. of first year students intake in the year_938</t>
-  </si>
-  <si>
-    <t>Row_2</t>
-  </si>
-  <si>
-    <t>No. of first year students intake in the year_1071</t>
-  </si>
-  <si>
-    <t>Row_3</t>
-  </si>
-  <si>
-    <t>No. of first year students intake in the year_102</t>
-  </si>
-  <si>
-    <t>No. of first year students intake in the year_109</t>
-  </si>
-  <si>
-    <t>No. of first year students intake in the year_123</t>
-  </si>
-  <si>
-    <t>No. of first year students intake in the year_1576</t>
-  </si>
-  <si>
-    <t>No. of first year students intake in the year_1587</t>
-  </si>
-  <si>
-    <t>No. of first year students intake in the year_1654</t>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2017-18</t>
   </si>
   <si>
     <t>Full Time</t>
@@ -295,6 +166,18 @@
     <t>Part Time</t>
   </si>
   <si>
+    <t>_1</t>
+  </si>
+  <si>
+    <t>Full Time_1</t>
+  </si>
+  <si>
+    <t>Part Time_1</t>
+  </si>
+  <si>
+    <t>Library ( Books, Journals and e-Resources only)</t>
+  </si>
+  <si>
     <t>New Equipment and software for Laboratories</t>
   </si>
   <si>
@@ -304,6 +187,9 @@
     <t>Other expenditure on creation of Capital Assets (For setting up classrooms, seminar hall, conference hall , library, Lab, Engg workshops excluding expenditure on Land and Building)</t>
   </si>
   <si>
+    <t>Salaries (Teaching and Non Teaching staff)</t>
+  </si>
+  <si>
     <t>Maintenance of Academic Infrastructure or consumables and other running expenditures(excluding maintenance of hostels and allied services,rent of the building, depreciation cost, etc)</t>
   </si>
   <si>
@@ -316,24 +202,45 @@
     <t>No. of Patents Granted</t>
   </si>
   <si>
+    <t>Total no. of Sponsored Projects</t>
+  </si>
+  <si>
+    <t>Total no. of Funding Agencies</t>
+  </si>
+  <si>
+    <t>Total Amount Received (Amount in Rupees)</t>
+  </si>
+  <si>
     <t>Amount Received in Words</t>
   </si>
   <si>
-    <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for handicapped students?</t>
+    <t>Total no. of Consultancy Projects</t>
+  </si>
+  <si>
+    <t>Total no. of Client Organizations</t>
   </si>
   <si>
     <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
   </si>
   <si>
+    <t>1113</t>
+  </si>
+  <si>
     <t>116</t>
   </si>
   <si>
     <t>1510</t>
   </si>
   <si>
+    <t>1093</t>
+  </si>
+  <si>
     <t>1654</t>
   </si>
   <si>
+    <t>1071</t>
+  </si>
+  <si>
     <t>126</t>
   </si>
   <si>
@@ -430,53 +337,50 @@
     <t>798</t>
   </si>
   <si>
+    <t>938</t>
+  </si>
+  <si>
     <t>790</t>
   </si>
   <si>
+    <t>924</t>
+  </si>
+  <si>
     <t>685</t>
   </si>
   <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>946</t>
+  </si>
+  <si>
     <t>621</t>
+  </si>
+  <si>
+    <t>676</t>
+  </si>
+  <si>
+    <t>711</t>
   </si>
   <si>
     <t>2050000(Twenty Lakh
 Fifty Thousand)</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>938</t>
-  </si>
-  <si>
-    <t>924</t>
-  </si>
-  <si>
-    <t>835</t>
-  </si>
-  <si>
-    <t>676</t>
-  </si>
-  <si>
     <t>2000000(Twenty Lakh)</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>1071</t>
-  </si>
-  <si>
-    <t>946</t>
-  </si>
-  <si>
-    <t>711</t>
   </si>
   <si>
     <t>1908000(Nineteen
 Lakh Eight Thousand)</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>49</t>
   </si>
   <si>
@@ -486,28 +390,28 @@
     <t>100</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
     <t>80</t>
   </si>
   <si>
-    <t>108</t>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
+    <t>118</t>
+  </si>
+  <si>
     <t>92</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
   <si>
     <t>2200000(Twenty Two
 Lakh)</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>2430000(Twenty Four
 Lakh Thirty Thousand)</t>
   </si>
@@ -518,55 +422,52 @@
     <t>1576</t>
   </si>
   <si>
+    <t>1587</t>
+  </si>
+  <si>
     <t>1298</t>
   </si>
   <si>
+    <t>1366</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
     <t>813</t>
   </si>
   <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
     <t>322</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>538</t>
   </si>
   <si>
     <t>1250000(Twelve Lakh
 Fifty Thousand)</t>
   </si>
   <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>1587</t>
-  </si>
-  <si>
-    <t>1366</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
     <t>1400000(Fourteen
 Lakh)</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>1133</t>
-  </si>
-  <si>
-    <t>666</t>
-  </si>
-  <si>
-    <t>538</t>
-  </si>
-  <si>
     <t>1559000(Fifteen Lakh
 Fifty Nine Thousand)</t>
   </si>
   <si>
-    <t>2023-24</t>
+    <t>159</t>
+  </si>
+  <si>
+    <t>112</t>
   </si>
   <si>
     <t>409</t>
@@ -575,7 +476,10 @@
     <t>55</t>
   </si>
   <si>
-    <t>2022-23</t>
+    <t>2866</t>
+  </si>
+  <si>
+    <t>546</t>
   </si>
   <si>
     <t>295</t>
@@ -584,13 +488,17 @@
     <t>60</t>
   </si>
   <si>
-    <t>2021-22</t>
-  </si>
-  <si>
     <t>238</t>
   </si>
   <si>
     <t>69</t>
+  </si>
+  <si>
+    <t>Utilised Amount</t>
+  </si>
+  <si>
+    <t>172854705 (Seventeen Crore Twenty Eight Lakh Fifty Four
+Thousand Seven Hundred Five Only)</t>
   </si>
   <si>
     <t>2563276596 (Two Hundred Fifty Six Crore Thirty Two Lakh
@@ -605,6 +513,10 @@
 Thousand Three Hundred Thirty Nine Only)</t>
   </si>
   <si>
+    <t>171675951 (Seventeen Crore Sixteen Lakh Seventy Five
+Thousand Nine Hundred Fifty One)</t>
+  </si>
+  <si>
     <t>2521491633 (Two hundred Fifty Two Crore Fourteen Lakh
 Ninety One Thousand Six Hundred Thirty Three)</t>
   </si>
@@ -617,6 +529,10 @@
 Eighty Three Thousand Two Hundred Thirty Three)</t>
   </si>
   <si>
+    <t>183339247 (Eighteen Crore Thirty Three Lakh Thirty Nine
+Thousand Two Hundrede Forty Seven)</t>
+  </si>
+  <si>
     <t>2372989697 (Two Hundred Thirty Seven Crore Twenty Nine
 Lakh Eighty Nine Thousand Six Hundred Ninety Seven)</t>
   </si>
@@ -629,6 +545,10 @@
 Thirty Thousand Seven Hundred Thirty One)</t>
   </si>
   <si>
+    <t>7014005469 (Seven Hundred One Crore Forty Lakh Five
+Thousand Four Hundred Sixty Nine Only)</t>
+  </si>
+  <si>
     <t>3324411413 (Three Hundred Thirty Two Crore Forty Four Lakh
 Eleven Thousand Four Hundred Thirteen  Only)</t>
   </si>
@@ -637,6 +557,10 @@
 Three Hundred Twenty Seven Only)</t>
   </si>
   <si>
+    <t>6845479679 (Six Hundred Eighty Four Crore Fifty Four Lakh
+Seventy Nine Thousand Six Hundred Seventy Nine)</t>
+  </si>
+  <si>
     <t>3796702680 (Three Hundred Seventy Nine Crore Sixty Seven
 Lakh Two Thousand Six Hundred Eighty)</t>
   </si>
@@ -645,6 +569,10 @@
 Four Hundred Twenty)</t>
   </si>
   <si>
+    <t>3899613736 (Three Hundred Eighty Nine Crore Ninety Six
+Lakh Thirteen Thousand Seven Hundred Thirty Six)</t>
+  </si>
+  <si>
     <t>3659085996 (Three Hundred Sixty Five Crore Ninety Lakh
 Eighty Five Thousand Nine Hundred Ninety Six)</t>
   </si>
@@ -665,31 +593,82 @@
     <t>77</t>
   </si>
   <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>3672207091</t>
+  </si>
+  <si>
     <t>Three Hundred Sixty Seven Crore Twenty Two Lakhs Seven
 Thousand Ninety One</t>
   </si>
   <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>3302728430</t>
+  </si>
+  <si>
     <t>Three Hundred Thirty Crore Twenty Seven Lakh Twenty Eight
 Thousand Four Hundred Thirty</t>
   </si>
   <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>3748347370</t>
+  </si>
+  <si>
     <t>Three Hundred Seventy Four Crore Eighty Three Lakh Forty
 Seven Thousand Three Hundred Seventy</t>
   </si>
   <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>475309217</t>
+  </si>
+  <si>
     <t>Forty Seven Crore Fifty Three Lakh Nine Thousand Two
 Hundred Seventeen</t>
   </si>
   <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>659733684</t>
+  </si>
+  <si>
     <t>Sixty Five Crore Ninety Seven Lakhs Thirty Three Thousand
 Six Hundred Eighty Four</t>
   </si>
   <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>431097403</t>
+  </si>
+  <si>
     <t>Forty Three Crore Ten Lakh Ninety SZeven Thousand Four
 Hundred Three</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>Yes, more than 80% of the buildings</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1048,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:EL5"/>
+  <dimension ref="A1:FV5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1077,146 +1056,182 @@
   <cols>
     <col min="1" max="1" style="5" width="6.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="25.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="24.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="25.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="6" width="25.005" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="25.005" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="6" width="25.005" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="24.005" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="40.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="24.005" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="41.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="43.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="6" width="49.005" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="40.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="6" width="41.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="6" width="43.005" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="6" width="49.005" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="6" width="24.005" customWidth="1" bestFit="1"/>
     <col min="46" max="46" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="6" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="52" max="52" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="55" max="55" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="56" max="56" style="6" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="6" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="6" width="47.005" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="6" width="49.005" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="55" max="55" style="6" width="48.005" customWidth="1" bestFit="1"/>
+    <col min="56" max="56" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="6" width="9.005" customWidth="1" bestFit="1"/>
     <col min="58" max="58" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="59" max="59" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="60" max="60" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="61" max="61" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="62" max="62" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="63" max="63" style="6" width="34.005" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="60" max="60" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="61" max="61" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="62" max="62" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="63" max="63" style="6" width="9.005" customWidth="1" bestFit="1"/>
     <col min="64" max="64" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="65" max="65" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="66" max="66" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="67" max="67" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="68" max="68" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="69" max="69" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="70" max="70" style="6" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="71" max="71" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="72" max="72" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="73" max="73" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="74" max="74" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="75" max="75" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="76" max="76" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="77" max="77" style="6" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="78" max="78" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="65" max="65" style="6" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="66" max="66" style="6" width="39.005" customWidth="1" bestFit="1"/>
+    <col min="67" max="67" style="6" width="45.005" customWidth="1" bestFit="1"/>
+    <col min="68" max="68" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="69" max="69" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="70" max="70" style="6" width="47.005" customWidth="1" bestFit="1"/>
+    <col min="71" max="71" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="72" max="72" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="73" max="73" style="6" width="49.005" customWidth="1" bestFit="1"/>
+    <col min="74" max="74" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="75" max="75" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="76" max="76" style="6" width="48.005" customWidth="1" bestFit="1"/>
+    <col min="77" max="77" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="78" max="78" style="6" width="9.005" customWidth="1" bestFit="1"/>
     <col min="79" max="79" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="80" max="80" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="81" max="81" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="82" max="82" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="83" max="83" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="84" max="84" style="6" width="34.005" customWidth="1" bestFit="1"/>
+    <col min="80" max="80" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="81" max="81" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="82" max="82" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="83" max="83" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="84" max="84" style="6" width="9.005" customWidth="1" bestFit="1"/>
     <col min="85" max="85" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="86" max="86" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="87" max="87" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="88" max="88" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="89" max="89" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="90" max="90" style="6" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="91" max="91" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="92" max="92" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="93" max="93" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="94" max="94" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="95" max="95" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="96" max="96" style="6" width="34.005" customWidth="1" bestFit="1"/>
+    <col min="86" max="86" style="6" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="87" max="87" style="6" width="43.005" customWidth="1" bestFit="1"/>
+    <col min="88" max="88" style="6" width="45.005" customWidth="1" bestFit="1"/>
+    <col min="89" max="89" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="90" max="90" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="91" max="91" style="6" width="47.005" customWidth="1" bestFit="1"/>
+    <col min="92" max="92" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="93" max="93" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="94" max="94" style="6" width="49.005" customWidth="1" bestFit="1"/>
+    <col min="95" max="95" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="96" max="96" style="6" width="9.005" customWidth="1" bestFit="1"/>
     <col min="97" max="97" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="98" max="98" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="99" max="99" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="100" max="100" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="101" max="101" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="102" max="102" style="6" width="34.005" customWidth="1" bestFit="1"/>
+    <col min="98" max="98" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="99" max="99" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="100" max="100" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="101" max="101" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="102" max="102" style="6" width="9.005" customWidth="1" bestFit="1"/>
     <col min="103" max="103" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="104" max="104" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="105" max="105" style="6" width="36.005" customWidth="1" bestFit="1"/>
-    <col min="106" max="106" style="6" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="107" max="107" style="6" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="108" max="108" style="6" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="109" max="109" style="6" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="104" max="104" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="105" max="105" style="6" width="43.005" customWidth="1" bestFit="1"/>
+    <col min="106" max="106" style="6" width="45.005" customWidth="1" bestFit="1"/>
+    <col min="107" max="107" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="108" max="108" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="109" max="109" style="6" width="36.005" customWidth="1" bestFit="1"/>
     <col min="110" max="110" style="6" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="111" max="111" style="6" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="112" max="112" style="6" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="111" max="111" style="6" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="112" max="112" style="6" width="16.005" customWidth="1" bestFit="1"/>
     <col min="113" max="113" style="6" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="114" max="114" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="115" max="115" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="116" max="116" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="117" max="117" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="118" max="118" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="119" max="119" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="120" max="120" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="121" max="121" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="114" max="114" style="6" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="115" max="115" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="116" max="116" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="117" max="117" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="118" max="118" style="6" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="119" max="119" style="6" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="120" max="120" style="6" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="121" max="121" style="6" width="33.005" customWidth="1" bestFit="1"/>
     <col min="122" max="122" style="6" width="50.005" customWidth="1" bestFit="1"/>
     <col min="123" max="123" style="6" width="50.005" customWidth="1" bestFit="1"/>
     <col min="124" max="124" style="6" width="50.005" customWidth="1" bestFit="1"/>
     <col min="125" max="125" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="126" max="126" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="126" max="126" style="6" width="17.005" customWidth="1" bestFit="1"/>
     <col min="127" max="127" style="6" width="50.005" customWidth="1" bestFit="1"/>
     <col min="128" max="128" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="129" max="129" style="6" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="130" max="130" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="131" max="131" style="6" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="132" max="132" style="6" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="133" max="133" style="6" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="134" max="134" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="129" max="129" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="130" max="130" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="131" max="131" style="6" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="132" max="132" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="133" max="133" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="134" max="134" style="6" width="50.005" customWidth="1" bestFit="1"/>
     <col min="135" max="135" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="136" max="136" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="136" max="136" style="6" width="49.005" customWidth="1" bestFit="1"/>
     <col min="137" max="137" style="6" width="50.005" customWidth="1" bestFit="1"/>
     <col min="138" max="138" style="6" width="50.005" customWidth="1" bestFit="1"/>
     <col min="139" max="139" style="6" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="140" max="140" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="140" max="140" style="6" width="17.005" customWidth="1" bestFit="1"/>
     <col min="141" max="141" style="6" width="50.005" customWidth="1" bestFit="1"/>
     <col min="142" max="142" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="143" max="143" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="144" max="144" style="6" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="145" max="145" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="146" max="146" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="147" max="147" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="148" max="148" style="6" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="149" max="149" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="150" max="150" style="6" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="151" max="151" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="152" max="152" style="6" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="153" max="153" style="6" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="154" max="154" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="155" max="155" style="6" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="156" max="156" style="6" width="42.005" customWidth="1" bestFit="1"/>
+    <col min="157" max="157" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="158" max="158" style="6" width="33.005" customWidth="1" bestFit="1"/>
+    <col min="159" max="159" style="6" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="160" max="160" style="6" width="42.005" customWidth="1" bestFit="1"/>
+    <col min="161" max="161" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="162" max="162" style="6" width="33.005" customWidth="1" bestFit="1"/>
+    <col min="163" max="163" style="6" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="164" max="164" style="6" width="42.005" customWidth="1" bestFit="1"/>
+    <col min="165" max="165" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="166" max="166" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="167" max="167" style="6" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="168" max="168" style="6" width="42.005" customWidth="1" bestFit="1"/>
+    <col min="169" max="169" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="170" max="170" style="6" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="171" max="171" style="6" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="172" max="172" style="6" width="42.005" customWidth="1" bestFit="1"/>
+    <col min="173" max="173" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="174" max="174" style="6" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="175" max="175" style="6" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="176" max="176" style="6" width="42.005" customWidth="1" bestFit="1"/>
+    <col min="177" max="177" style="6" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="178" max="178" style="6" width="50.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1230,13 +1245,13 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1268,13 +1283,13 @@
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
-      <c r="AS1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
       <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
+      <c r="AW1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
       <c r="AZ1" s="2"/>
@@ -1291,13 +1306,13 @@
       <c r="BK1" s="2"/>
       <c r="BL1" s="2"/>
       <c r="BM1" s="2"/>
-      <c r="BN1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="BN1" s="2"/>
       <c r="BO1" s="2"/>
       <c r="BP1" s="2"/>
       <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
+      <c r="BR1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="BS1" s="2"/>
       <c r="BT1" s="2"/>
       <c r="BU1" s="2"/>
@@ -1314,13 +1329,13 @@
       <c r="CF1" s="2"/>
       <c r="CG1" s="2"/>
       <c r="CH1" s="2"/>
-      <c r="CI1" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="CI1" s="2"/>
       <c r="CJ1" s="2"/>
       <c r="CK1" s="2"/>
       <c r="CL1" s="2"/>
-      <c r="CM1" s="2"/>
+      <c r="CM1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="CN1" s="2"/>
       <c r="CO1" s="2"/>
       <c r="CP1" s="2"/>
@@ -1334,58 +1349,94 @@
       <c r="CX1" s="2"/>
       <c r="CY1" s="2"/>
       <c r="CZ1" s="2"/>
-      <c r="DA1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="DA1" s="2"/>
       <c r="DB1" s="2"/>
       <c r="DC1" s="2"/>
       <c r="DD1" s="2"/>
-      <c r="DE1" s="2"/>
+      <c r="DE1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="DF1" s="2"/>
       <c r="DG1" s="2"/>
       <c r="DH1" s="2"/>
       <c r="DI1" s="2"/>
-      <c r="DJ1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="DJ1" s="2"/>
       <c r="DK1" s="2"/>
       <c r="DL1" s="2"/>
       <c r="DM1" s="2"/>
       <c r="DN1" s="2"/>
       <c r="DO1" s="2"/>
       <c r="DP1" s="2"/>
-      <c r="DQ1" s="2"/>
+      <c r="DQ1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="DR1" s="2"/>
-      <c r="DS1" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="DS1" s="2"/>
       <c r="DT1" s="2"/>
       <c r="DU1" s="2"/>
       <c r="DV1" s="2"/>
       <c r="DW1" s="2"/>
       <c r="DX1" s="2"/>
-      <c r="DY1" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="DY1" s="2"/>
       <c r="DZ1" s="2"/>
       <c r="EA1" s="2"/>
       <c r="EB1" s="2"/>
       <c r="EC1" s="2"/>
       <c r="ED1" s="2"/>
-      <c r="EE1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="EF1" s="2"/>
+      <c r="EE1" s="2"/>
+      <c r="EF1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="EG1" s="2"/>
-      <c r="EH1" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="EH1" s="2"/>
       <c r="EI1" s="2"/>
       <c r="EJ1" s="2"/>
-      <c r="EK1" s="2" t="s">
+      <c r="EK1" s="2"/>
+      <c r="EL1" s="2"/>
+      <c r="EM1" s="2"/>
+      <c r="EN1" s="2"/>
+      <c r="EO1" s="2"/>
+      <c r="EP1" s="2"/>
+      <c r="EQ1" s="2"/>
+      <c r="ER1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="ES1" s="2"/>
+      <c r="ET1" s="2"/>
+      <c r="EU1" s="2"/>
+      <c r="EV1" s="2"/>
+      <c r="EW1" s="2"/>
+      <c r="EX1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="EY1" s="2"/>
+      <c r="EZ1" s="2"/>
+      <c r="FA1" s="2"/>
+      <c r="FB1" s="2"/>
+      <c r="FC1" s="2"/>
+      <c r="FD1" s="2"/>
+      <c r="FE1" s="2"/>
+      <c r="FF1" s="2"/>
+      <c r="FG1" s="2"/>
+      <c r="FH1" s="2"/>
+      <c r="FI1" s="2"/>
+      <c r="FJ1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="FK1" s="2"/>
+      <c r="FL1" s="2"/>
+      <c r="FM1" s="2"/>
+      <c r="FN1" s="2"/>
+      <c r="FO1" s="2"/>
+      <c r="FP1" s="2"/>
+      <c r="FQ1" s="2"/>
+      <c r="FR1" s="2"/>
+      <c r="FS1" s="2"/>
+      <c r="FT1" s="2"/>
+      <c r="FU1" s="2"/>
+      <c r="FV1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="EL1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
@@ -1393,754 +1444,806 @@
         <v>12</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2" t="s">
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2" t="s">
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2" t="s">
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2" t="s">
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2" t="s">
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2"/>
+      <c r="BU2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BV2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="2"/>
+      <c r="CD2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE2" s="2"/>
+      <c r="CF2" s="2"/>
+      <c r="CG2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="2"/>
+      <c r="CM2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="CN2" s="2"/>
+      <c r="CO2" s="2"/>
+      <c r="CP2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="CQ2" s="2"/>
+      <c r="CR2" s="2"/>
+      <c r="CS2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT2" s="2"/>
+      <c r="CU2" s="2"/>
+      <c r="CV2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW2" s="2"/>
+      <c r="CX2" s="2"/>
+      <c r="CY2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CZ2" s="2"/>
+      <c r="DA2" s="2"/>
+      <c r="DB2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC2" s="2"/>
+      <c r="DD2" s="2"/>
+      <c r="DE2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="DF2" s="2"/>
+      <c r="DG2" s="2"/>
+      <c r="DH2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BB2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="CI2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="CK2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="CL2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="CM2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="CN2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="CO2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="CP2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="CQ2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="CR2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="CS2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="CT2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="CU2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="CV2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="CW2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="CX2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="CY2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="CZ2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="DA2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="DB2" s="2"/>
-      <c r="DC2" s="2"/>
-      <c r="DD2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="DE2" s="2"/>
-      <c r="DF2" s="2"/>
-      <c r="DG2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="DH2" s="2"/>
       <c r="DI2" s="2"/>
-      <c r="DJ2" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="DJ2" s="2"/>
       <c r="DK2" s="2"/>
       <c r="DL2" s="2"/>
-      <c r="DM2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="DN2" s="2"/>
+      <c r="DM2" s="2"/>
+      <c r="DN2" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="DO2" s="2"/>
-      <c r="DP2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="DQ2" s="2"/>
+      <c r="DP2" s="2"/>
+      <c r="DQ2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="DR2" s="2"/>
-      <c r="DS2" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="DS2" s="2"/>
       <c r="DT2" s="2"/>
-      <c r="DU2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="DV2" s="2"/>
-      <c r="DW2" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="DU2" s="2"/>
+      <c r="DV2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="DW2" s="2"/>
       <c r="DX2" s="2"/>
-      <c r="DY2" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="DY2" s="2"/>
       <c r="DZ2" s="2"/>
       <c r="EA2" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="EB2" s="2"/>
-      <c r="EC2" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="EC2" s="2"/>
       <c r="ED2" s="2"/>
-      <c r="EE2" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="EE2" s="2"/>
       <c r="EF2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="EG2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="EH2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="EI2" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="EG2" s="2"/>
+      <c r="EH2" s="2"/>
+      <c r="EI2" s="2"/>
       <c r="EJ2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="EK2" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="EK2" s="2"/>
       <c r="EL2" s="2"/>
+      <c r="EM2" s="2"/>
+      <c r="EN2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="EO2" s="2"/>
+      <c r="EP2" s="2"/>
+      <c r="EQ2" s="2"/>
+      <c r="ER2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="ES2" s="2"/>
+      <c r="ET2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="EU2" s="2"/>
+      <c r="EV2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="EW2" s="2"/>
+      <c r="EX2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="EY2" s="2"/>
+      <c r="EZ2" s="2"/>
+      <c r="FA2" s="2"/>
+      <c r="FB2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="FC2" s="2"/>
+      <c r="FD2" s="2"/>
+      <c r="FE2" s="2"/>
+      <c r="FF2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="FG2" s="2"/>
+      <c r="FH2" s="2"/>
+      <c r="FI2" s="2"/>
+      <c r="FJ2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="FK2" s="2"/>
+      <c r="FL2" s="2"/>
+      <c r="FM2" s="2"/>
+      <c r="FN2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="FO2" s="2"/>
+      <c r="FP2" s="2"/>
+      <c r="FQ2" s="2"/>
+      <c r="FR2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="FS2" s="2"/>
+      <c r="FT2" s="2"/>
+      <c r="FU2" s="2"/>
+      <c r="FV2" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="BM3" s="2" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="BP3" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="BQ3" s="2" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="BT3" s="2" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="BU3" s="2" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="BV3" s="2" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="BW3" s="2" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="BX3" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="BY3" s="2" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="CA3" s="2" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="CB3" s="2" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="CC3" s="2" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="CE3" s="2" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="CF3" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="CG3" s="2" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="CH3" s="2" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="CI3" s="2" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="CJ3" s="2" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="CK3" s="2" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="CL3" s="2" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="CM3" s="2" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="CN3" s="2" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="CO3" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="CP3" s="2" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="CQ3" s="2" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="CR3" s="2" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="CS3" s="2" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="CT3" s="2" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="CU3" s="2" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="CV3" s="2" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="CW3" s="2" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="CX3" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="CY3" s="2" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="CZ3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="DA3" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="DA3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="DB3" s="2" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="DC3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="DD3" s="2"/>
-      <c r="DE3" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="DD3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="DE3" s="2"/>
       <c r="DF3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="DG3" s="2"/>
-      <c r="DH3" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="DG3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="DH3" s="2"/>
       <c r="DI3" s="2" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="DJ3" s="2" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="DK3" s="2" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="DL3" s="2" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="DM3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="DN3" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="DN3" s="2"/>
       <c r="DO3" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="DP3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="DQ3" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="DQ3" s="2"/>
       <c r="DR3" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="DS3" s="2" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="DT3" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="DU3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="DV3" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="DV3" s="2"/>
       <c r="DW3" s="2" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="DX3" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="DY3" s="2" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="DZ3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="EA3" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="EA3" s="2"/>
       <c r="EB3" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="EC3" s="2" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="ED3" s="2" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="EE3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="EF3" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="EF3" s="2"/>
       <c r="EG3" s="2" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="EH3" s="2" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="EI3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="EJ3" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="EJ3" s="2"/>
       <c r="EK3" s="2" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="EL3" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
+      </c>
+      <c r="EM3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="EN3" s="2"/>
+      <c r="EO3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="EP3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="EQ3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="ER3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="ES3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="ET3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="EU3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EV3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="EW3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="EX3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="EY3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="EZ3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="FA3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="FB3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="FC3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="FD3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="FE3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="FF3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="FG3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="FH3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="FI3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="FJ3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="FK3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="FL3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="FM3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="FN3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="FO3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="FP3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="FQ3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="FR3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="FS3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="FT3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="FU3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="FV3" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -2286,476 +2389,646 @@
       <c r="EJ4" s="4"/>
       <c r="EK4" s="4"/>
       <c r="EL4" s="4"/>
+      <c r="EM4" s="4"/>
+      <c r="EN4" s="4"/>
+      <c r="EO4" s="4"/>
+      <c r="EP4" s="4"/>
+      <c r="EQ4" s="4"/>
+      <c r="ER4" s="4"/>
+      <c r="ES4" s="4"/>
+      <c r="ET4" s="4"/>
+      <c r="EU4" s="4"/>
+      <c r="EV4" s="4"/>
+      <c r="EW4" s="4"/>
+      <c r="EX4" s="4"/>
+      <c r="EY4" s="4"/>
+      <c r="EZ4" s="4"/>
+      <c r="FA4" s="4"/>
+      <c r="FB4" s="4"/>
+      <c r="FC4" s="4"/>
+      <c r="FD4" s="4"/>
+      <c r="FE4" s="4"/>
+      <c r="FF4" s="4"/>
+      <c r="FG4" s="4"/>
+      <c r="FH4" s="4"/>
+      <c r="FI4" s="4"/>
+      <c r="FJ4" s="4"/>
+      <c r="FK4" s="4"/>
+      <c r="FL4" s="4"/>
+      <c r="FM4" s="4"/>
+      <c r="FN4" s="4"/>
+      <c r="FO4" s="4"/>
+      <c r="FP4" s="4"/>
+      <c r="FQ4" s="4"/>
+      <c r="FR4" s="4"/>
+      <c r="FS4" s="4"/>
+      <c r="FT4" s="4"/>
+      <c r="FU4" s="4"/>
+      <c r="FV4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="32.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT5" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="AU5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="AV5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="AW5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="AX5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="AY5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="BA5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="BB5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="BG5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="BH5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="BI5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="BJ5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="BK5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="BL5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="BM5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="BN5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="BO5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="BP5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="BQ5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="BR5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="BS5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="BV5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BW5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="CB5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="CE5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CF5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AA5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="CH5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="CI5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AL5" s="4" t="s">
+      <c r="CJ5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CK5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="CL5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AM5" s="4" t="s">
+      <c r="CM5" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AN5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP5" s="4" t="s">
+      <c r="CN5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="CO5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="CP5" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AR5" s="4" t="s">
+      <c r="CQ5" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AS5" s="4" t="s">
+      <c r="CR5" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AT5" s="4" t="s">
+      <c r="CS5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AU5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV5" s="4" t="s">
+      <c r="CT5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AW5" s="4" t="s">
+      <c r="CU5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AX5" s="4" t="s">
+      <c r="CV5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" s="4" t="s">
+      <c r="CW5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AZ5" s="4" t="s">
+      <c r="CX5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BA5" s="4" t="s">
+      <c r="CY5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="BB5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BC5" s="4" t="s">
+      <c r="CZ5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="BD5" s="4" t="s">
+      <c r="DA5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="BE5" s="4" t="s">
+      <c r="DB5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="BF5" s="4" t="s">
+      <c r="DC5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="BG5" s="4" t="s">
+      <c r="DD5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="DE5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="DF5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="BH5" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="BI5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BJ5" s="4" t="s">
+      <c r="DG5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="BK5" s="4" t="s">
+      <c r="DH5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="DI5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="BL5" s="4" t="s">
+      <c r="DJ5" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BM5" s="4" t="s">
+      <c r="DK5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="DL5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="BN5" s="4" t="s">
+      <c r="DM5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="BO5" s="4" t="s">
+      <c r="DN5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="DO5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="BP5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BQ5" s="4" t="s">
+      <c r="DP5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="BR5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="BS5" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BT5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BU5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV5" s="4" t="s">
+      <c r="DQ5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="BW5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="BX5" s="4" t="s">
+      <c r="DR5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="BY5" s="4" t="s">
+      <c r="DS5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="BZ5" s="4" t="s">
+      <c r="DT5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="CA5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="CB5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="CC5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="CD5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="CE5" s="4" t="s">
+      <c r="DU5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CF5" s="4" t="s">
+      <c r="DV5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DW5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="CG5" s="4" t="s">
+      <c r="DX5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CH5" s="4" t="s">
+      <c r="DY5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="CI5" s="4" t="s">
+      <c r="DZ5" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="CJ5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="CK5" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="CL5" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="CM5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="CN5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="CO5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CP5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="CQ5" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="CR5" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="CS5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CT5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="CU5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CV5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="CW5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="CX5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="CY5" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="CZ5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="DA5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="DB5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="DC5" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="DD5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="DE5" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="DF5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="DG5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="DH5" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="DI5" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="DJ5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="DK5" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="DL5" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="DM5" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="DN5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="DO5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="DP5" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="DQ5" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="DR5" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="DS5" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="DT5" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="DU5" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="DV5" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="DW5" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="DX5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="DY5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="DZ5" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="EA5" s="4" t="s">
         <v>157</v>
       </c>
       <c r="EB5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="EC5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="ED5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="EE5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="EF5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="EG5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="EH5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="EI5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="EJ5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="EK5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="EL5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="EM5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="EN5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="EO5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="EP5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="EQ5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="ER5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="ES5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="ET5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="EU5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="EV5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="EW5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="EX5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="EY5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EZ5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="FA5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="FB5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="FC5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="FD5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="FE5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="FF5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="FG5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="FH5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="FI5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="FJ5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="FK5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="FL5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="FM5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="FN5" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="FO5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="FP5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="FQ5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="FR5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="FS5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="FT5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="FU5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="FV5" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="EC5" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="ED5" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="EE5" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="EF5" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="EG5" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="EH5" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="EI5" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="EJ5" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="EK5" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="EL5" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:AR1"/>
-    <mergeCell ref="AS1:BM1"/>
-    <mergeCell ref="BN1:CH1"/>
-    <mergeCell ref="CI1:CZ1"/>
-    <mergeCell ref="DA1:DI1"/>
-    <mergeCell ref="DJ1:DR1"/>
-    <mergeCell ref="DS1:DX1"/>
-    <mergeCell ref="DY1:ED1"/>
-    <mergeCell ref="EE1:EG1"/>
-    <mergeCell ref="EH1:EJ1"/>
-    <mergeCell ref="EK1:EL1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="DA2:DC2"/>
-    <mergeCell ref="DD2:DF2"/>
-    <mergeCell ref="DG2:DI2"/>
-    <mergeCell ref="DJ2:DL2"/>
-    <mergeCell ref="DM2:DO2"/>
-    <mergeCell ref="DP2:DR2"/>
-    <mergeCell ref="DS2:DT2"/>
-    <mergeCell ref="DU2:DV2"/>
-    <mergeCell ref="DW2:DX2"/>
-    <mergeCell ref="DY2:DZ2"/>
-    <mergeCell ref="EA2:EB2"/>
-    <mergeCell ref="EC2:ED2"/>
-    <mergeCell ref="EK2:EL2"/>
+  <mergeCells count="65">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="M1:AV1"/>
+    <mergeCell ref="AW1:BQ1"/>
+    <mergeCell ref="BR1:CL1"/>
+    <mergeCell ref="CM1:DD1"/>
+    <mergeCell ref="DE1:DP1"/>
+    <mergeCell ref="DQ1:EE1"/>
+    <mergeCell ref="EF1:EQ1"/>
+    <mergeCell ref="ER1:EW1"/>
+    <mergeCell ref="EX1:FI1"/>
+    <mergeCell ref="FJ1:FU1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BI2:BK2"/>
+    <mergeCell ref="BL2:BN2"/>
+    <mergeCell ref="BO2:BQ2"/>
+    <mergeCell ref="BR2:BT2"/>
+    <mergeCell ref="BU2:BW2"/>
+    <mergeCell ref="BX2:BZ2"/>
+    <mergeCell ref="CA2:CC2"/>
+    <mergeCell ref="CD2:CF2"/>
+    <mergeCell ref="CG2:CI2"/>
+    <mergeCell ref="CJ2:CL2"/>
+    <mergeCell ref="CM2:CO2"/>
+    <mergeCell ref="CP2:CR2"/>
+    <mergeCell ref="CS2:CU2"/>
+    <mergeCell ref="CV2:CX2"/>
+    <mergeCell ref="CY2:DA2"/>
+    <mergeCell ref="DB2:DD2"/>
+    <mergeCell ref="DE2:DG2"/>
+    <mergeCell ref="DH2:DM2"/>
+    <mergeCell ref="DN2:DP2"/>
+    <mergeCell ref="DQ2:DU2"/>
+    <mergeCell ref="DV2:DZ2"/>
+    <mergeCell ref="EA2:EE2"/>
+    <mergeCell ref="EF2:EI2"/>
+    <mergeCell ref="EJ2:EM2"/>
+    <mergeCell ref="EN2:EQ2"/>
+    <mergeCell ref="ER2:ES2"/>
+    <mergeCell ref="ET2:EU2"/>
+    <mergeCell ref="EV2:EW2"/>
+    <mergeCell ref="EX2:FA2"/>
+    <mergeCell ref="FB2:FE2"/>
+    <mergeCell ref="FF2:FI2"/>
+    <mergeCell ref="FJ2:FM2"/>
+    <mergeCell ref="FN2:FQ2"/>
+    <mergeCell ref="FR2:FU2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
